--- a/进度.xlsx
+++ b/进度.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>产品形态</t>
     <rPh sb="0" eb="1">
@@ -113,6 +113,43 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到产品经理</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互流程图</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴怀玉</t>
+    <rPh sb="0" eb="1">
+      <t>wu'huai'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,12 +493,18 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>10.29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>11.4</v>
+      </c>
+      <c r="D1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,20 +520,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
